--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H2">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N2">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O2">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P2">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q2">
-        <v>20.32930112497758</v>
+        <v>21.52639776862422</v>
       </c>
       <c r="R2">
-        <v>20.32930112497758</v>
+        <v>193.737579917618</v>
       </c>
       <c r="S2">
-        <v>0.3112550458540275</v>
+        <v>0.2806709937180694</v>
       </c>
       <c r="T2">
-        <v>0.3112550458540275</v>
+        <v>0.2806709937180694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H3">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N3">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q3">
-        <v>2.178984846583833</v>
+        <v>2.459947055971555</v>
       </c>
       <c r="R3">
-        <v>2.178984846583833</v>
+        <v>22.139523503744</v>
       </c>
       <c r="S3">
-        <v>0.03336169916364647</v>
+        <v>0.03207391185996385</v>
       </c>
       <c r="T3">
-        <v>0.03336169916364647</v>
+        <v>0.03207391185996385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H4">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J4">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N4">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q4">
-        <v>0.6734584854891345</v>
+        <v>0.8430076725074443</v>
       </c>
       <c r="R4">
-        <v>0.6734584854891345</v>
+        <v>7.587069052566999</v>
       </c>
       <c r="S4">
-        <v>0.01031109483267766</v>
+        <v>0.0109915185855893</v>
       </c>
       <c r="T4">
-        <v>0.01031109483267766</v>
+        <v>0.0109915185855893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H5">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I5">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J5">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N5">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q5">
-        <v>0.5856245496773689</v>
+        <v>0.7134011194174444</v>
       </c>
       <c r="R5">
-        <v>0.5856245496773689</v>
+        <v>6.420610074757</v>
       </c>
       <c r="S5">
-        <v>0.008966299182765173</v>
+        <v>0.009301649224299092</v>
       </c>
       <c r="T5">
-        <v>0.008966299182765173</v>
+        <v>0.009301649224299092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H6">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I6">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J6">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N6">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q6">
-        <v>8.771829904064749</v>
+        <v>10.32739680201355</v>
       </c>
       <c r="R6">
-        <v>8.771829904064749</v>
+        <v>92.94657121812199</v>
       </c>
       <c r="S6">
-        <v>0.1343025174465467</v>
+        <v>0.1346533105119338</v>
       </c>
       <c r="T6">
-        <v>0.1343025174465467</v>
+        <v>0.1346533105119338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H7">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J7">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N7">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O7">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P7">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q7">
-        <v>17.39593421951961</v>
+        <v>19.25180236688867</v>
       </c>
       <c r="R7">
-        <v>17.39593421951961</v>
+        <v>173.266221301998</v>
       </c>
       <c r="S7">
-        <v>0.2663432584270007</v>
+        <v>0.251013781277157</v>
       </c>
       <c r="T7">
-        <v>0.2663432584270007</v>
+        <v>0.2510137812771571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H8">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J8">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N8">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q8">
-        <v>1.864573544534192</v>
+        <v>2.200015769642667</v>
       </c>
       <c r="R8">
-        <v>1.864573544534192</v>
+        <v>19.800141926784</v>
       </c>
       <c r="S8">
-        <v>0.02854785418024725</v>
+        <v>0.02868480917699285</v>
       </c>
       <c r="T8">
-        <v>0.02854785418024725</v>
+        <v>0.02868480917699285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H9">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J9">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N9">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q9">
-        <v>0.5762834364606916</v>
+        <v>0.7539309307263333</v>
       </c>
       <c r="R9">
-        <v>0.5762834364606916</v>
+        <v>6.785378376536999</v>
       </c>
       <c r="S9">
-        <v>0.008823280561283281</v>
+        <v>0.009830095392466256</v>
       </c>
       <c r="T9">
-        <v>0.008823280561283281</v>
+        <v>0.009830095392466256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H10">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I10">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J10">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N10">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q10">
-        <v>0.501123284115579</v>
+        <v>0.6380193057363334</v>
       </c>
       <c r="R10">
-        <v>0.501123284115579</v>
+        <v>5.742173751626999</v>
       </c>
       <c r="S10">
-        <v>0.007672528918580193</v>
+        <v>0.008318786750904408</v>
       </c>
       <c r="T10">
-        <v>0.007672528918580193</v>
+        <v>0.008318786750904408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H11">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I11">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J11">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N11">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q11">
-        <v>7.506120109974693</v>
+        <v>9.236148301904667</v>
       </c>
       <c r="R11">
-        <v>7.506120109974693</v>
+        <v>83.125334717142</v>
       </c>
       <c r="S11">
-        <v>0.114923663369101</v>
+        <v>0.1204251147770517</v>
       </c>
       <c r="T11">
-        <v>0.114923663369101</v>
+        <v>0.1204251147770517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H12">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I12">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J12">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N12">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O12">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P12">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q12">
-        <v>3.080540568628459</v>
+        <v>1.303336938251334</v>
       </c>
       <c r="R12">
-        <v>3.080540568628459</v>
+        <v>11.730032444262</v>
       </c>
       <c r="S12">
-        <v>0.04716511354960315</v>
+        <v>0.01699350153891759</v>
       </c>
       <c r="T12">
-        <v>0.04716511354960315</v>
+        <v>0.01699350153891759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H13">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I13">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J13">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N13">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q13">
-        <v>0.3301860293702328</v>
+        <v>0.1489399154773334</v>
       </c>
       <c r="R13">
-        <v>0.3301860293702328</v>
+        <v>1.340459239296</v>
       </c>
       <c r="S13">
-        <v>0.005055366491950884</v>
+        <v>0.001941946559318833</v>
       </c>
       <c r="T13">
-        <v>0.005055366491950884</v>
+        <v>0.001941946559318833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H14">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I14">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J14">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N14">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q14">
-        <v>0.1020505413876419</v>
+        <v>0.05104072918366667</v>
       </c>
       <c r="R14">
-        <v>0.1020505413876419</v>
+        <v>0.459366562653</v>
       </c>
       <c r="S14">
-        <v>0.001562461284023792</v>
+        <v>0.0006654923101418726</v>
       </c>
       <c r="T14">
-        <v>0.001562461284023792</v>
+        <v>0.0006654923101418726</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.165749116458517</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H15">
-        <v>0.165749116458517</v>
+        <v>0.207213</v>
       </c>
       <c r="I15">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="J15">
-        <v>0.07549275806412414</v>
+        <v>0.02831683511985592</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N15">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q15">
-        <v>0.08874088549209269</v>
+        <v>0.04319357287366667</v>
       </c>
       <c r="R15">
-        <v>0.08874088549209269</v>
+        <v>0.388742155863</v>
       </c>
       <c r="S15">
-        <v>0.001358681649367264</v>
+        <v>0.0005631775065661939</v>
       </c>
       <c r="T15">
-        <v>0.001358681649367264</v>
+        <v>0.0005631775065661939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.207213</v>
+      </c>
+      <c r="I16">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J16">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.158246</v>
+      </c>
+      <c r="O16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q16">
+        <v>0.6252824031553333</v>
+      </c>
+      <c r="R16">
+        <v>5.627541628398</v>
+      </c>
+      <c r="S16">
+        <v>0.008152717204911437</v>
+      </c>
+      <c r="T16">
+        <v>0.008152717204911437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.209088</v>
+      </c>
+      <c r="H17">
+        <v>0.627264</v>
+      </c>
+      <c r="I17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J17">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.86952466666667</v>
+      </c>
+      <c r="N17">
+        <v>56.608574</v>
+      </c>
+      <c r="O17">
+        <v>0.600120086407596</v>
+      </c>
+      <c r="P17">
+        <v>0.6001200864075961</v>
+      </c>
+      <c r="Q17">
+        <v>3.945391173504</v>
+      </c>
+      <c r="R17">
+        <v>35.508520561536</v>
+      </c>
+      <c r="S17">
+        <v>0.05144180987345195</v>
+      </c>
+      <c r="T17">
+        <v>0.05144180987345196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.209088</v>
+      </c>
+      <c r="H18">
+        <v>0.627264</v>
+      </c>
+      <c r="I18">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J18">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.468992</v>
+      </c>
+      <c r="O18">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="P18">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="Q18">
+        <v>0.4508628664320001</v>
+      </c>
+      <c r="R18">
+        <v>4.057765797888</v>
+      </c>
+      <c r="S18">
+        <v>0.005878555720850373</v>
+      </c>
+      <c r="T18">
+        <v>0.005878555720850373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="H16">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="I16">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="J16">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="N16">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="O16">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="P16">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="Q16">
-        <v>1.329213321916866</v>
-      </c>
-      <c r="R16">
-        <v>1.329213321916866</v>
-      </c>
-      <c r="S16">
-        <v>0.02035113508917905</v>
-      </c>
-      <c r="T16">
-        <v>0.02035113508917905</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.209088</v>
+      </c>
+      <c r="H19">
+        <v>0.627264</v>
+      </c>
+      <c r="I19">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J19">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7389603333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.216881</v>
+      </c>
+      <c r="O19">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="P19">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="Q19">
+        <v>0.154507738176</v>
+      </c>
+      <c r="R19">
+        <v>1.390569643584</v>
+      </c>
+      <c r="S19">
+        <v>0.002014542371515453</v>
+      </c>
+      <c r="T19">
+        <v>0.002014542371515453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.209088</v>
+      </c>
+      <c r="H20">
+        <v>0.627264</v>
+      </c>
+      <c r="I20">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J20">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6253503333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.876051</v>
+      </c>
+      <c r="O20">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="P20">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="Q20">
+        <v>0.130753250496</v>
+      </c>
+      <c r="R20">
+        <v>1.176779254464</v>
+      </c>
+      <c r="S20">
+        <v>0.001704820525154006</v>
+      </c>
+      <c r="T20">
+        <v>0.001704820525154006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.209088</v>
+      </c>
+      <c r="H21">
+        <v>0.627264</v>
+      </c>
+      <c r="I21">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J21">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.158246</v>
+      </c>
+      <c r="O21">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P21">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q21">
+        <v>1.892821113216</v>
+      </c>
+      <c r="R21">
+        <v>17.035390018944</v>
+      </c>
+      <c r="S21">
+        <v>0.02467946511474458</v>
+      </c>
+      <c r="T21">
+        <v>0.02467946511474458</v>
       </c>
     </row>
   </sheetData>
